--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H2">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I2">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J2">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N2">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P2">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q2">
-        <v>6.348121254535966</v>
+        <v>0.4194888245548888</v>
       </c>
       <c r="R2">
-        <v>6.348121254535966</v>
+        <v>3.775399420994</v>
       </c>
       <c r="S2">
-        <v>0.03798495969078045</v>
+        <v>0.002167311112279448</v>
       </c>
       <c r="T2">
-        <v>0.03798495969078045</v>
+        <v>0.002167311112279449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H3">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I3">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J3">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N3">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P3">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q3">
-        <v>42.91402358553196</v>
+        <v>2.574536857429333</v>
       </c>
       <c r="R3">
-        <v>42.91402358553196</v>
+        <v>23.170831716864</v>
       </c>
       <c r="S3">
-        <v>0.2567826591057749</v>
+        <v>0.01330148030999453</v>
       </c>
       <c r="T3">
-        <v>0.2567826591057749</v>
+        <v>0.01330148030999453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H4">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I4">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J4">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N4">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P4">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q4">
-        <v>35.4000171190993</v>
+        <v>2.132729277456222</v>
       </c>
       <c r="R4">
-        <v>35.4000171190993</v>
+        <v>19.194563497106</v>
       </c>
       <c r="S4">
-        <v>0.2118214459689328</v>
+        <v>0.01101885817201258</v>
       </c>
       <c r="T4">
-        <v>0.2118214459689328</v>
+        <v>0.01101885817201258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H5">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I5">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J5">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N5">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O5">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P5">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q5">
-        <v>29.14403300866834</v>
+        <v>1.796180295185333</v>
       </c>
       <c r="R5">
-        <v>29.14403300866834</v>
+        <v>16.165622656668</v>
       </c>
       <c r="S5">
-        <v>0.1743878030480317</v>
+        <v>0.009280060124469849</v>
       </c>
       <c r="T5">
-        <v>0.1743878030480317</v>
+        <v>0.009280060124469849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.44670569454586</v>
+        <v>0.3262753333333333</v>
       </c>
       <c r="H6">
-        <v>5.44670569454586</v>
+        <v>0.978826</v>
       </c>
       <c r="I6">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="J6">
-        <v>0.7541886620577184</v>
+        <v>0.04000942411912322</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N6">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P6">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q6">
-        <v>12.23529920546724</v>
+        <v>0.8209950928715556</v>
       </c>
       <c r="R6">
-        <v>12.23529920546724</v>
+        <v>7.388955835844</v>
       </c>
       <c r="S6">
-        <v>0.07321179424419862</v>
+        <v>0.004241714400366813</v>
       </c>
       <c r="T6">
-        <v>0.07321179424419862</v>
+        <v>0.004241714400366814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H7">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I7">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J7">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N7">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P7">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q7">
-        <v>1.2396013790469</v>
+        <v>7.036984537911666</v>
       </c>
       <c r="R7">
-        <v>1.2396013790469</v>
+        <v>63.332860841205</v>
       </c>
       <c r="S7">
-        <v>0.007417345467698419</v>
+        <v>0.03635695134938934</v>
       </c>
       <c r="T7">
-        <v>0.007417345467698419</v>
+        <v>0.03635695134938934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H8">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I8">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J8">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N8">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P8">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q8">
-        <v>8.379846679687461</v>
+        <v>43.18822099072</v>
       </c>
       <c r="R8">
-        <v>8.379846679687461</v>
+        <v>388.69398891648</v>
       </c>
       <c r="S8">
-        <v>0.05014210119496467</v>
+        <v>0.2231342190631359</v>
       </c>
       <c r="T8">
-        <v>0.05014210119496467</v>
+        <v>0.2231342190631359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H9">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I9">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J9">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N9">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P9">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q9">
-        <v>6.912582208124037</v>
+        <v>35.77683616467166</v>
       </c>
       <c r="R9">
-        <v>6.912582208124037</v>
+        <v>321.9915254820449</v>
       </c>
       <c r="S9">
-        <v>0.04136249860495004</v>
+        <v>0.1848429089003021</v>
       </c>
       <c r="T9">
-        <v>0.04136249860495004</v>
+        <v>0.1848429089003021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H10">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I10">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J10">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N10">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O10">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P10">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q10">
-        <v>5.690972503513476</v>
+        <v>30.13117924639</v>
       </c>
       <c r="R10">
-        <v>5.690972503513476</v>
+        <v>271.18061321751</v>
       </c>
       <c r="S10">
-        <v>0.03405280908785995</v>
+        <v>0.1556743249979956</v>
       </c>
       <c r="T10">
-        <v>0.03405280908785995</v>
+        <v>0.1556743249979956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.06358143134038</v>
+        <v>5.473314999999999</v>
       </c>
       <c r="H11">
-        <v>1.06358143134038</v>
+        <v>16.419945</v>
       </c>
       <c r="I11">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="J11">
-        <v>0.1472708645696187</v>
+        <v>0.6711637650794694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N11">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O11">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P11">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q11">
-        <v>2.389194087512322</v>
+        <v>13.77230914403667</v>
       </c>
       <c r="R11">
-        <v>2.389194087512322</v>
+        <v>123.95078229633</v>
       </c>
       <c r="S11">
-        <v>0.01429611021414562</v>
+        <v>0.07115536076864637</v>
       </c>
       <c r="T11">
-        <v>0.01429611021414562</v>
+        <v>0.07115536076864638</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.379637180504762</v>
+        <v>1.32145</v>
       </c>
       <c r="H12">
-        <v>0.379637180504762</v>
+        <v>3.96435</v>
       </c>
       <c r="I12">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J12">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N12">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O12">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P12">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q12">
-        <v>0.4424661418713442</v>
+        <v>1.698974610016667</v>
       </c>
       <c r="R12">
-        <v>0.4424661418713442</v>
+        <v>15.29077149015</v>
       </c>
       <c r="S12">
-        <v>0.002647564198857873</v>
+        <v>0.008777841830892346</v>
       </c>
       <c r="T12">
-        <v>0.002647564198857873</v>
+        <v>0.008777841830892346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.379637180504762</v>
+        <v>1.32145</v>
       </c>
       <c r="H13">
-        <v>0.379637180504762</v>
+        <v>3.96435</v>
       </c>
       <c r="I13">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J13">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N13">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O13">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P13">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q13">
-        <v>2.991121575458025</v>
+        <v>10.4271496576</v>
       </c>
       <c r="R13">
-        <v>2.991121575458025</v>
+        <v>93.84434691839999</v>
       </c>
       <c r="S13">
-        <v>0.01789783589795371</v>
+        <v>0.0538724180466465</v>
       </c>
       <c r="T13">
-        <v>0.01789783589795371</v>
+        <v>0.0538724180466465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.379637180504762</v>
+        <v>1.32145</v>
       </c>
       <c r="H14">
-        <v>0.379637180504762</v>
+        <v>3.96435</v>
       </c>
       <c r="I14">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J14">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N14">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O14">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P14">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q14">
-        <v>2.467392850392609</v>
+        <v>8.637781700816666</v>
       </c>
       <c r="R14">
-        <v>2.467392850392609</v>
+        <v>77.74003530735</v>
       </c>
       <c r="S14">
-        <v>0.01476402453663184</v>
+        <v>0.04462755422742966</v>
       </c>
       <c r="T14">
-        <v>0.01476402453663184</v>
+        <v>0.04462755422742967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.379637180504762</v>
+        <v>1.32145</v>
       </c>
       <c r="H15">
-        <v>0.379637180504762</v>
+        <v>3.96435</v>
       </c>
       <c r="I15">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J15">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N15">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O15">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P15">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q15">
-        <v>2.031348697806056</v>
+        <v>7.274722323700001</v>
       </c>
       <c r="R15">
-        <v>2.031348697806056</v>
+        <v>65.47250091330001</v>
       </c>
       <c r="S15">
-        <v>0.01215488729818263</v>
+        <v>0.03758523614456711</v>
       </c>
       <c r="T15">
-        <v>0.01215488729818263</v>
+        <v>0.03758523614456711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.379637180504762</v>
+        <v>1.32145</v>
       </c>
       <c r="H16">
-        <v>0.379637180504762</v>
+        <v>3.96435</v>
       </c>
       <c r="I16">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="J16">
-        <v>0.05256719809901971</v>
+        <v>0.1620424472854687</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.24636686680524</v>
+        <v>2.516264666666667</v>
       </c>
       <c r="N16">
-        <v>2.24636686680524</v>
+        <v>7.548794</v>
       </c>
       <c r="O16">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="P16">
-        <v>0.09707358109103434</v>
+        <v>0.1060178818804695</v>
       </c>
       <c r="Q16">
-        <v>0.8528043836932575</v>
+        <v>3.325117943766667</v>
       </c>
       <c r="R16">
-        <v>0.8528043836932575</v>
+        <v>29.9260614939</v>
       </c>
       <c r="S16">
-        <v>0.005102886167393656</v>
+        <v>0.01717939703593302</v>
       </c>
       <c r="T16">
-        <v>0.005102886167393656</v>
+        <v>0.01717939703593303</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.332016261748991</v>
+        <v>0.640597</v>
       </c>
       <c r="H17">
-        <v>0.332016261748991</v>
+        <v>1.921791</v>
       </c>
       <c r="I17">
-        <v>0.04597327527364319</v>
+        <v>0.07855303311039341</v>
       </c>
       <c r="J17">
-        <v>0.04597327527364319</v>
+        <v>0.0785530331103934</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.16549738696048</v>
+        <v>1.285689666666667</v>
       </c>
       <c r="N17">
-        <v>1.16549738696048</v>
+        <v>3.857069</v>
       </c>
       <c r="O17">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="P17">
-        <v>0.05036532846720711</v>
+        <v>0.05417001519008476</v>
       </c>
       <c r="Q17">
-        <v>0.3869640854968358</v>
+        <v>0.8236089433976665</v>
       </c>
       <c r="R17">
-        <v>0.3869640854968358</v>
+        <v>7.412480490578999</v>
       </c>
       <c r="S17">
-        <v>0.00231545910987037</v>
+        <v>0.004255218996817241</v>
       </c>
       <c r="T17">
-        <v>0.00231545910987037</v>
+        <v>0.004255218996817241</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.332016261748991</v>
+        <v>0.640597</v>
       </c>
       <c r="H18">
-        <v>0.332016261748991</v>
+        <v>1.921791</v>
       </c>
       <c r="I18">
-        <v>0.04597327527364319</v>
+        <v>0.07855303311039341</v>
       </c>
       <c r="J18">
-        <v>0.04597327527364319</v>
+        <v>0.0785530331103934</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.87889524277116</v>
+        <v>7.890688</v>
       </c>
       <c r="N18">
-        <v>7.87889524277116</v>
+        <v>23.672064</v>
       </c>
       <c r="O18">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="P18">
-        <v>0.3404753638236518</v>
+        <v>0.3324586794948855</v>
       </c>
       <c r="Q18">
-        <v>2.61592134521679</v>
+        <v>5.054751060736</v>
       </c>
       <c r="R18">
-        <v>2.61592134521679</v>
+        <v>45.49275954662399</v>
       </c>
       <c r="S18">
-        <v>0.01565276762495856</v>
+        <v>0.02611563765819941</v>
       </c>
       <c r="T18">
-        <v>0.01565276762495856</v>
+        <v>0.02611563765819941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.332016261748991</v>
+        <v>0.640597</v>
       </c>
       <c r="H19">
-        <v>0.332016261748991</v>
+        <v>1.921791</v>
       </c>
       <c r="I19">
-        <v>0.04597327527364319</v>
+        <v>0.07855303311039341</v>
       </c>
       <c r="J19">
-        <v>0.04597327527364319</v>
+        <v>0.0785530331103934</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.49934457713543</v>
+        <v>6.536593666666666</v>
       </c>
       <c r="N19">
-        <v>6.49934457713543</v>
+        <v>19.609781</v>
       </c>
       <c r="O19">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927831</v>
       </c>
       <c r="P19">
-        <v>0.2808600243220337</v>
+        <v>0.2754065676927832</v>
       </c>
       <c r="Q19">
-        <v>2.157888090319082</v>
+        <v>4.187322293085666</v>
       </c>
       <c r="R19">
-        <v>2.157888090319082</v>
+        <v>37.68590063777099</v>
       </c>
       <c r="S19">
-        <v>0.01291205521151898</v>
+        <v>0.02163402123079099</v>
       </c>
       <c r="T19">
-        <v>0.01291205521151898</v>
+        <v>0.021634021230791</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.332016261748991</v>
+        <v>0.640597</v>
       </c>
       <c r="H20">
-        <v>0.332016261748991</v>
+        <v>1.921791</v>
       </c>
       <c r="I20">
-        <v>0.04597327527364319</v>
+        <v>0.07855303311039341</v>
       </c>
       <c r="J20">
-        <v>0.04597327527364319</v>
+        <v>0.0785530331103934</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.35076331329085</v>
+        <v>5.505106</v>
       </c>
       <c r="N20">
-        <v>5.35076331329085</v>
+        <v>16.515318</v>
       </c>
       <c r="O20">
-        <v>0.2312257022960731</v>
+        <v>0.231946855741777</v>
       </c>
       <c r="P20">
-        <v>0.2312257022960731</v>
+        <v>0.2319468557417771</v>
       </c>
       <c r="Q20">
-        <v>1.776540432782473</v>
+        <v>3.526554388282</v>
       </c>
       <c r="R20">
-        <v>1.776540432782473</v>
+        <v>31.738989494538</v>
       </c>
       <c r="S20">
-        <v>0.01063020286199884</v>
+        <v>0.01822012903893546</v>
       </c>
       <c r="T20">
-        <v>0.01063020286199884</v>
+        <v>0.01822012903893545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.640597</v>
+      </c>
+      <c r="H21">
+        <v>1.921791</v>
+      </c>
+      <c r="I21">
+        <v>0.07855303311039341</v>
+      </c>
+      <c r="J21">
+        <v>0.0785530331103934</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.548794</v>
+      </c>
+      <c r="O21">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P21">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q21">
+        <v>1.611911596672667</v>
+      </c>
+      <c r="R21">
+        <v>14.507204370054</v>
+      </c>
+      <c r="S21">
+        <v>0.008328026185650299</v>
+      </c>
+      <c r="T21">
+        <v>0.008328026185650299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.179974</v>
+      </c>
+      <c r="I22">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J22">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.285689666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.857069</v>
+      </c>
+      <c r="O22">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="P22">
+        <v>0.05417001519008476</v>
+      </c>
+      <c r="Q22">
+        <v>0.5056934595784445</v>
+      </c>
+      <c r="R22">
+        <v>4.551241136206</v>
+      </c>
+      <c r="S22">
+        <v>0.002612691900706387</v>
+      </c>
+      <c r="T22">
+        <v>0.002612691900706387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.179974</v>
+      </c>
+      <c r="I23">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J23">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.890688</v>
+      </c>
+      <c r="N23">
+        <v>23.672064</v>
+      </c>
+      <c r="O23">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="P23">
+        <v>0.3324586794948855</v>
+      </c>
+      <c r="Q23">
+        <v>3.103602227370667</v>
+      </c>
+      <c r="R23">
+        <v>27.932420046336</v>
+      </c>
+      <c r="S23">
+        <v>0.01603492441690912</v>
+      </c>
+      <c r="T23">
+        <v>0.01603492441690912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.179974</v>
+      </c>
+      <c r="I24">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J24">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.536593666666666</v>
+      </c>
+      <c r="N24">
+        <v>19.609781</v>
+      </c>
+      <c r="O24">
+        <v>0.2754065676927831</v>
+      </c>
+      <c r="P24">
+        <v>0.2754065676927832</v>
+      </c>
+      <c r="Q24">
+        <v>2.571003525077111</v>
+      </c>
+      <c r="R24">
+        <v>23.139031725694</v>
+      </c>
+      <c r="S24">
+        <v>0.01328322516224781</v>
+      </c>
+      <c r="T24">
+        <v>0.01328322516224781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.332016261748991</v>
-      </c>
-      <c r="H21">
-        <v>0.332016261748991</v>
-      </c>
-      <c r="I21">
-        <v>0.04597327527364319</v>
-      </c>
-      <c r="J21">
-        <v>0.04597327527364319</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.24636686680524</v>
-      </c>
-      <c r="N21">
-        <v>2.24636686680524</v>
-      </c>
-      <c r="O21">
-        <v>0.09707358109103434</v>
-      </c>
-      <c r="P21">
-        <v>0.09707358109103434</v>
-      </c>
-      <c r="Q21">
-        <v>0.7458303296334694</v>
-      </c>
-      <c r="R21">
-        <v>0.7458303296334694</v>
-      </c>
-      <c r="S21">
-        <v>0.004462790465296447</v>
-      </c>
-      <c r="T21">
-        <v>0.004462790465296447</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.179974</v>
+      </c>
+      <c r="I25">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J25">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.505106</v>
+      </c>
+      <c r="N25">
+        <v>16.515318</v>
+      </c>
+      <c r="O25">
+        <v>0.231946855741777</v>
+      </c>
+      <c r="P25">
+        <v>0.2319468557417771</v>
+      </c>
+      <c r="Q25">
+        <v>2.165293982414667</v>
+      </c>
+      <c r="R25">
+        <v>19.487645841732</v>
+      </c>
+      <c r="S25">
+        <v>0.01118710543580901</v>
+      </c>
+      <c r="T25">
+        <v>0.01118710543580901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3933246666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.179974</v>
+      </c>
+      <c r="I26">
+        <v>0.04823133040554533</v>
+      </c>
+      <c r="J26">
+        <v>0.04823133040554532</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.516264666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.548794</v>
+      </c>
+      <c r="O26">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="P26">
+        <v>0.1060178818804695</v>
+      </c>
+      <c r="Q26">
+        <v>0.989708961261778</v>
+      </c>
+      <c r="R26">
+        <v>8.907380651356</v>
+      </c>
+      <c r="S26">
+        <v>0.005113383489873002</v>
+      </c>
+      <c r="T26">
+        <v>0.005113383489873002</v>
       </c>
     </row>
   </sheetData>
